--- a/metadata/specs.xlsx
+++ b/metadata/specs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neitmant/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucfi\Documents\Clinical Data\ClinicalExercise\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACC596A-F463-E147-829A-71860B7FE1BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D8F2F3-388A-4D0D-ADA1-1FA3F340E59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="1" r:id="rId1"/>
@@ -44,8 +44,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -53,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7707" uniqueCount="1702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7728" uniqueCount="1704">
   <si>
     <t>Attribute</t>
   </si>
@@ -5426,12 +5430,18 @@
 Set to "LOW LOW" if AVAL is less than A1LO
 Set to "HIGH HIGH" if AVAL is greater than A1HI</t>
   </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -5522,8 +5532,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5560,6 +5577,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -5577,10 +5599,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5615,8 +5638,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5837,11 +5863,11 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="74.33203125" customWidth="1"/>
-    <col min="3" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="74.28515625" customWidth="1"/>
+    <col min="3" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -6891,12 +6917,12 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="62.5" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="62.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -7920,10 +7946,10 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="19.5" customWidth="1"/>
-    <col min="5" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -8939,19 +8965,19 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" customWidth="1"/>
-    <col min="4" max="4" width="46.83203125" customWidth="1"/>
-    <col min="5" max="6" width="19.5" customWidth="1"/>
+    <col min="1" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+    <col min="4" max="4" width="46.85546875" customWidth="1"/>
+    <col min="5" max="6" width="19.42578125" customWidth="1"/>
     <col min="7" max="7" width="82" customWidth="1"/>
-    <col min="8" max="9" width="19.5" customWidth="1"/>
-    <col min="10" max="10" width="27.33203125" customWidth="1"/>
-    <col min="11" max="12" width="19.5" customWidth="1"/>
-    <col min="13" max="13" width="27.33203125" customWidth="1"/>
-    <col min="14" max="14" width="19.5" customWidth="1"/>
-    <col min="15" max="26" width="8.6640625" customWidth="1"/>
+    <col min="8" max="9" width="19.42578125" customWidth="1"/>
+    <col min="10" max="10" width="27.28515625" customWidth="1"/>
+    <col min="11" max="12" width="19.42578125" customWidth="1"/>
+    <col min="13" max="13" width="27.28515625" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" customWidth="1"/>
+    <col min="15" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -9994,21 +10020,21 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="3" max="3" width="30.1640625" customWidth="1"/>
-    <col min="4" max="4" width="66.6640625" customWidth="1"/>
-    <col min="5" max="5" width="30.5" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.5" customWidth="1"/>
-    <col min="9" max="9" width="18.5" customWidth="1"/>
-    <col min="10" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" customWidth="1"/>
+    <col min="4" max="4" width="66.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="10" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -11219,30 +11245,32 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:S831"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A238" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A272" sqref="A272:XFD272"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A232" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S259" sqref="S259"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="3" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="3" width="18.7109375" customWidth="1"/>
     <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" customWidth="1"/>
-    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5" customWidth="1"/>
-    <col min="13" max="13" width="12.83203125" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" customWidth="1"/>
-    <col min="15" max="15" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.33203125" customWidth="1"/>
-    <col min="17" max="19" width="15.5" customWidth="1"/>
-    <col min="20" max="26" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" customWidth="1"/>
+    <col min="17" max="18" width="15.42578125" customWidth="1"/>
+    <col min="19" max="19" width="29.140625" customWidth="1"/>
+    <col min="20" max="20" width="23.5703125" customWidth="1"/>
+    <col min="21" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -18595,7 +18623,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="225" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="225" spans="1:19" ht="15.75" hidden="1" customHeight="1">
       <c r="A225" s="2" t="s">
         <v>187</v>
       </c>
@@ -18628,7 +18656,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="226" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="226" spans="1:19" ht="15.75" hidden="1" customHeight="1">
       <c r="A226" s="2" t="s">
         <v>190</v>
       </c>
@@ -18661,7 +18689,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="227" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="227" spans="1:19" ht="15.75" hidden="1" customHeight="1">
       <c r="A227" s="2" t="s">
         <v>193</v>
       </c>
@@ -18694,7 +18722,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="228" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="228" spans="1:19" ht="15.75" hidden="1" customHeight="1">
       <c r="A228" s="2" t="s">
         <v>196</v>
       </c>
@@ -18727,7 +18755,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="229" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="229" spans="1:19" ht="15.75" hidden="1" customHeight="1">
       <c r="A229" s="2" t="s">
         <v>300</v>
       </c>
@@ -18757,7 +18785,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="230" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="230" spans="1:19" ht="15.75" hidden="1" customHeight="1">
       <c r="A230" s="2" t="s">
         <v>304</v>
       </c>
@@ -18790,7 +18818,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="231" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="231" spans="1:19" ht="15.75" hidden="1" customHeight="1">
       <c r="A231" s="2" t="s">
         <v>308</v>
       </c>
@@ -18823,418 +18851,554 @@
         <v>552</v>
       </c>
     </row>
-    <row r="232" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A232" s="2" t="s">
+    <row r="232" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A232" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B232" s="2" t="s">
+      <c r="B232" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C232" s="2" t="s">
+      <c r="C232" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D232" s="2" t="s">
+      <c r="D232" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E232" s="2" t="s">
+      <c r="E232" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="F232" s="2" t="s">
+      <c r="F232" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="I232" s="2" t="s">
+      <c r="G232" s="20"/>
+      <c r="H232" s="20"/>
+      <c r="I232" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="L232" s="3"/>
-      <c r="M232" s="2" t="s">
+      <c r="J232" s="20"/>
+      <c r="K232" s="20"/>
+      <c r="L232" s="21"/>
+      <c r="M232" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="O232" s="2" t="s">
+      <c r="N232" s="20"/>
+      <c r="O232" s="20" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="233" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A233" s="2" t="s">
+      <c r="P232" s="20"/>
+      <c r="Q232" s="20"/>
+      <c r="R232" s="20"/>
+      <c r="S232" s="20" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="233" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A233" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B233" s="2" t="s">
+      <c r="B233" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C233" s="2" t="s">
+      <c r="C233" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D233" s="2" t="s">
+      <c r="D233" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="E233" s="2" t="s">
+      <c r="E233" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="F233" s="2" t="s">
+      <c r="F233" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="I233" s="2" t="s">
+      <c r="G233" s="20"/>
+      <c r="H233" s="20"/>
+      <c r="I233" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="L233" s="3"/>
-      <c r="M233" s="2" t="s">
+      <c r="J233" s="20"/>
+      <c r="K233" s="20"/>
+      <c r="L233" s="21"/>
+      <c r="M233" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="O233" s="2" t="s">
+      <c r="N233" s="20"/>
+      <c r="O233" s="20" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="234" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A234" s="2" t="s">
+      <c r="P233" s="20"/>
+      <c r="Q233" s="20"/>
+      <c r="R233" s="20"/>
+      <c r="S233" s="20" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="234" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A234" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B234" s="2" t="s">
+      <c r="B234" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C234" s="2" t="s">
+      <c r="C234" s="20" t="s">
         <v>362</v>
       </c>
-      <c r="D234" s="2" t="s">
+      <c r="D234" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="E234" s="2" t="s">
+      <c r="E234" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="F234" s="2" t="s">
+      <c r="F234" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="I234" s="2" t="s">
+      <c r="G234" s="20"/>
+      <c r="H234" s="20"/>
+      <c r="I234" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="L234" s="3"/>
-      <c r="M234" s="2" t="s">
+      <c r="J234" s="20"/>
+      <c r="K234" s="20"/>
+      <c r="L234" s="21"/>
+      <c r="M234" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="O234" s="2" t="s">
+      <c r="N234" s="20"/>
+      <c r="O234" s="20" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="235" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A235" s="2" t="s">
+      <c r="P234" s="20"/>
+      <c r="Q234" s="20"/>
+      <c r="R234" s="20"/>
+      <c r="S234" s="20" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="235" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A235" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="B235" s="2" t="s">
+      <c r="B235" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C235" s="2" t="s">
+      <c r="C235" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D235" s="2" t="s">
+      <c r="D235" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="E235" s="2" t="s">
+      <c r="E235" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="F235" s="2" t="s">
+      <c r="F235" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="I235" s="2" t="s">
+      <c r="G235" s="20"/>
+      <c r="H235" s="20"/>
+      <c r="I235" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="L235" s="3"/>
-      <c r="M235" s="2" t="s">
+      <c r="J235" s="20"/>
+      <c r="K235" s="20"/>
+      <c r="L235" s="21"/>
+      <c r="M235" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="O235" s="2" t="s">
+      <c r="N235" s="20"/>
+      <c r="O235" s="20" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="236" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A236" s="2" t="s">
+      <c r="P235" s="20"/>
+      <c r="Q235" s="20"/>
+      <c r="R235" s="20"/>
+      <c r="S235" s="20" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="236" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A236" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="B236" s="2" t="s">
+      <c r="B236" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C236" s="2" t="s">
+      <c r="C236" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="D236" s="2" t="s">
+      <c r="D236" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="E236" s="2" t="s">
+      <c r="E236" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="F236" s="2" t="s">
+      <c r="F236" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="I236" s="2" t="s">
+      <c r="G236" s="20"/>
+      <c r="H236" s="20"/>
+      <c r="I236" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="L236" s="3"/>
-      <c r="M236" s="2" t="s">
+      <c r="J236" s="20"/>
+      <c r="K236" s="20"/>
+      <c r="L236" s="21"/>
+      <c r="M236" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="O236" s="2" t="s">
+      <c r="N236" s="20"/>
+      <c r="O236" s="20" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="237" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A237" s="2" t="s">
+      <c r="P236" s="20"/>
+      <c r="Q236" s="20"/>
+      <c r="R236" s="20"/>
+      <c r="S236" s="20" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="237" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A237" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="B237" s="2" t="s">
+      <c r="B237" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C237" s="2" t="s">
+      <c r="C237" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="D237" s="2" t="s">
+      <c r="D237" s="20" t="s">
         <v>558</v>
       </c>
-      <c r="E237" s="2" t="s">
+      <c r="E237" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="F237" s="2" t="s">
+      <c r="F237" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="I237" s="2" t="s">
+      <c r="G237" s="20"/>
+      <c r="H237" s="20"/>
+      <c r="I237" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="K237" s="2" t="s">
+      <c r="J237" s="20"/>
+      <c r="K237" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="L237" s="3"/>
-      <c r="M237" s="2" t="s">
+      <c r="L237" s="21"/>
+      <c r="M237" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="O237" s="2" t="s">
+      <c r="N237" s="20"/>
+      <c r="O237" s="20" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="238" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A238" s="2" t="s">
+      <c r="P237" s="20"/>
+      <c r="Q237" s="20"/>
+      <c r="R237" s="20"/>
+      <c r="S237" s="20" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="238" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A238" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="B238" s="2" t="s">
+      <c r="B238" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C238" s="2" t="s">
+      <c r="C238" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="D238" s="2" t="s">
+      <c r="D238" s="20" t="s">
         <v>561</v>
       </c>
-      <c r="E238" s="2" t="s">
+      <c r="E238" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="F238" s="2" t="s">
+      <c r="F238" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="I238" s="2" t="s">
+      <c r="G238" s="20"/>
+      <c r="H238" s="20"/>
+      <c r="I238" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="K238" s="2" t="s">
+      <c r="J238" s="20"/>
+      <c r="K238" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="L238" s="3"/>
-      <c r="M238" s="2" t="s">
+      <c r="L238" s="21"/>
+      <c r="M238" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="O238" s="2" t="s">
+      <c r="N238" s="20"/>
+      <c r="O238" s="20" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="239" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A239" s="2" t="s">
+      <c r="P238" s="20"/>
+      <c r="Q238" s="20"/>
+      <c r="R238" s="20"/>
+      <c r="S238" s="20" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="239" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A239" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B239" s="2" t="s">
+      <c r="B239" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C239" s="2" t="s">
+      <c r="C239" s="20" t="s">
         <v>563</v>
       </c>
-      <c r="D239" s="2" t="s">
+      <c r="D239" s="20" t="s">
         <v>564</v>
       </c>
-      <c r="E239" s="2" t="s">
+      <c r="E239" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="F239" s="2" t="s">
+      <c r="F239" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="I239" s="2" t="s">
+      <c r="G239" s="20"/>
+      <c r="H239" s="20"/>
+      <c r="I239" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="K239" s="2" t="s">
+      <c r="J239" s="20"/>
+      <c r="K239" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="L239" s="3"/>
-      <c r="M239" s="2" t="s">
+      <c r="L239" s="21"/>
+      <c r="M239" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="O239" s="2" t="s">
+      <c r="N239" s="20"/>
+      <c r="O239" s="20" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="240" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A240" s="2" t="s">
+      <c r="P239" s="20"/>
+      <c r="Q239" s="20"/>
+      <c r="R239" s="20"/>
+      <c r="S239" s="20" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="240" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A240" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="B240" s="2" t="s">
+      <c r="B240" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C240" s="2" t="s">
+      <c r="C240" s="20" t="s">
         <v>566</v>
       </c>
-      <c r="D240" s="2" t="s">
+      <c r="D240" s="20" t="s">
         <v>567</v>
       </c>
-      <c r="E240" s="2" t="s">
+      <c r="E240" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="F240" s="2" t="s">
+      <c r="F240" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="I240" s="2" t="s">
+      <c r="G240" s="20"/>
+      <c r="H240" s="20"/>
+      <c r="I240" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="K240" s="2" t="s">
+      <c r="J240" s="20"/>
+      <c r="K240" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="L240" s="3"/>
-      <c r="M240" s="2" t="s">
+      <c r="L240" s="21"/>
+      <c r="M240" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="O240" s="2" t="s">
+      <c r="N240" s="20"/>
+      <c r="O240" s="20" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="241" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A241" s="2" t="s">
+      <c r="P240" s="20"/>
+      <c r="Q240" s="20"/>
+      <c r="R240" s="20"/>
+      <c r="S240" s="20" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="241" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A241" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="B241" s="2" t="s">
+      <c r="B241" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C241" s="2" t="s">
+      <c r="C241" s="20" t="s">
         <v>569</v>
       </c>
-      <c r="D241" s="2" t="s">
+      <c r="D241" s="20" t="s">
         <v>570</v>
       </c>
-      <c r="E241" s="2" t="s">
+      <c r="E241" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="F241" s="2" t="s">
+      <c r="F241" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="I241" s="2" t="s">
+      <c r="G241" s="20"/>
+      <c r="H241" s="20"/>
+      <c r="I241" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="K241" s="2" t="s">
+      <c r="J241" s="20"/>
+      <c r="K241" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="L241" s="3"/>
-      <c r="M241" s="2" t="s">
+      <c r="L241" s="21"/>
+      <c r="M241" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="O241" s="2" t="s">
+      <c r="N241" s="20"/>
+      <c r="O241" s="20" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="242" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A242" s="2" t="s">
+      <c r="P241" s="20"/>
+      <c r="Q241" s="20"/>
+      <c r="R241" s="20"/>
+      <c r="S241" s="20" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="242" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A242" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B242" s="2" t="s">
+      <c r="B242" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C242" s="2" t="s">
+      <c r="C242" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="D242" s="2" t="s">
+      <c r="D242" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="E242" s="2" t="s">
+      <c r="E242" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="F242" s="2" t="s">
+      <c r="F242" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="H242" s="2" t="s">
+      <c r="G242" s="20"/>
+      <c r="H242" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="I242" s="2" t="s">
+      <c r="I242" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="L242" s="3"/>
-      <c r="M242" s="2" t="s">
+      <c r="J242" s="20"/>
+      <c r="K242" s="20"/>
+      <c r="L242" s="21"/>
+      <c r="M242" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="O242" s="2" t="s">
+      <c r="N242" s="20"/>
+      <c r="O242" s="20" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="243" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A243" s="2" t="s">
+      <c r="P242" s="20"/>
+      <c r="Q242" s="20"/>
+      <c r="R242" s="20"/>
+      <c r="S242" s="20" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="243" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A243" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B243" s="2" t="s">
+      <c r="B243" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C243" s="2" t="s">
+      <c r="C243" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="D243" s="2" t="s">
+      <c r="D243" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="E243" s="2" t="s">
+      <c r="E243" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="F243" s="2" t="s">
+      <c r="F243" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="H243" s="2" t="s">
+      <c r="G243" s="20"/>
+      <c r="H243" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="I243" s="2" t="s">
+      <c r="I243" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="L243" s="3"/>
-      <c r="M243" s="2" t="s">
+      <c r="J243" s="20"/>
+      <c r="K243" s="20"/>
+      <c r="L243" s="21"/>
+      <c r="M243" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="O243" s="2" t="s">
+      <c r="N243" s="20"/>
+      <c r="O243" s="20" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="244" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A244" s="2" t="s">
+      <c r="P243" s="20"/>
+      <c r="Q243" s="20"/>
+      <c r="R243" s="20"/>
+      <c r="S243" s="20" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="244" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A244" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B244" s="2" t="s">
+      <c r="B244" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C244" s="2" t="s">
+      <c r="C244" s="20" t="s">
         <v>574</v>
       </c>
-      <c r="D244" s="2" t="s">
+      <c r="D244" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="E244" s="2" t="s">
+      <c r="E244" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="F244" s="2" t="s">
+      <c r="F244" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="I244" s="2" t="s">
+      <c r="G244" s="20"/>
+      <c r="H244" s="20"/>
+      <c r="I244" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="L244" s="3"/>
-      <c r="M244" s="2" t="s">
+      <c r="J244" s="20"/>
+      <c r="K244" s="20"/>
+      <c r="L244" s="21"/>
+      <c r="M244" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="O244" s="2" t="s">
+      <c r="N244" s="20"/>
+      <c r="O244" s="20" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="245" spans="1:15" ht="15.75" customHeight="1">
+      <c r="P244" s="20"/>
+      <c r="Q244" s="20"/>
+      <c r="R244" s="20"/>
+      <c r="S244" s="20" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="245" spans="1:19" ht="15.75" customHeight="1">
       <c r="A245" s="2" t="s">
         <v>110</v>
       </c>
@@ -19267,7 +19431,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="246" spans="1:15" ht="15.75" customHeight="1">
+    <row r="246" spans="1:19" ht="15.75" customHeight="1">
       <c r="A246" s="2" t="s">
         <v>113</v>
       </c>
@@ -19300,37 +19464,48 @@
         <v>582</v>
       </c>
     </row>
-    <row r="247" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A247" s="2" t="s">
+    <row r="247" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A247" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="B247" s="2" t="s">
+      <c r="B247" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C247" s="2" t="s">
+      <c r="C247" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D247" s="2" t="s">
+      <c r="D247" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="E247" s="2" t="s">
+      <c r="E247" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="F247" s="2" t="s">
+      <c r="F247" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="I247" s="2" t="s">
+      <c r="G247" s="20"/>
+      <c r="H247" s="20"/>
+      <c r="I247" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="L247" s="3"/>
-      <c r="M247" s="2" t="s">
+      <c r="J247" s="20"/>
+      <c r="K247" s="20"/>
+      <c r="L247" s="21"/>
+      <c r="M247" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="O247" s="2" t="s">
+      <c r="N247" s="20"/>
+      <c r="O247" s="20" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="248" spans="1:15" ht="15.75" customHeight="1">
+      <c r="P247" s="20"/>
+      <c r="Q247" s="20"/>
+      <c r="R247" s="20"/>
+      <c r="S247" s="20" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="248" spans="1:19" ht="15.75" customHeight="1">
       <c r="A248" s="2" t="s">
         <v>120</v>
       </c>
@@ -19363,7 +19538,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="249" spans="1:15" ht="15.75" customHeight="1">
+    <row r="249" spans="1:19" ht="15.75" customHeight="1">
       <c r="A249" s="2" t="s">
         <v>123</v>
       </c>
@@ -19396,73 +19571,93 @@
         <v>585</v>
       </c>
     </row>
-    <row r="250" spans="1:15" ht="15.75" customHeight="1">
+    <row r="250" spans="1:19" ht="15.75" customHeight="1">
       <c r="A250" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B250" s="2" t="s">
+      <c r="B250" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C250" s="2" t="s">
+      <c r="C250" s="20" t="s">
         <v>586</v>
       </c>
-      <c r="D250" s="2" t="s">
+      <c r="D250" s="20" t="s">
         <v>587</v>
       </c>
-      <c r="E250" s="2" t="s">
+      <c r="E250" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="F250" s="2" t="s">
+      <c r="F250" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="I250" s="2" t="s">
+      <c r="G250" s="20"/>
+      <c r="H250" s="20"/>
+      <c r="I250" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="K250" s="2" t="s">
+      <c r="J250" s="20"/>
+      <c r="K250" s="20" t="s">
         <v>586</v>
       </c>
-      <c r="L250" s="3"/>
-      <c r="M250" s="2" t="s">
+      <c r="L250" s="21"/>
+      <c r="M250" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="O250" s="2" t="s">
+      <c r="N250" s="20"/>
+      <c r="O250" s="20" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="251" spans="1:15" ht="15.75" customHeight="1">
+      <c r="P250" s="20"/>
+      <c r="Q250" s="20"/>
+      <c r="R250" s="20"/>
+      <c r="S250" s="20" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="251" spans="1:19" ht="15.75" customHeight="1">
       <c r="A251" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B251" s="2" t="s">
+      <c r="B251" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C251" s="2" t="s">
+      <c r="C251" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D251" s="2" t="s">
+      <c r="D251" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="E251" s="2" t="s">
+      <c r="E251" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="F251" s="2" t="s">
+      <c r="F251" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="I251" s="2" t="s">
+      <c r="G251" s="20"/>
+      <c r="H251" s="20"/>
+      <c r="I251" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="K251" s="2" t="s">
+      <c r="J251" s="20"/>
+      <c r="K251" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="L251" s="3"/>
-      <c r="M251" s="2" t="s">
+      <c r="L251" s="21"/>
+      <c r="M251" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="O251" s="2" t="s">
+      <c r="N251" s="20"/>
+      <c r="O251" s="20" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="252" spans="1:15" ht="15.75" customHeight="1">
+      <c r="P251" s="20"/>
+      <c r="Q251" s="20"/>
+      <c r="R251" s="20"/>
+      <c r="S251" s="20" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="252" spans="1:19" ht="15.75" customHeight="1">
       <c r="A252" s="2" t="s">
         <v>131</v>
       </c>
@@ -19495,73 +19690,93 @@
         <v>590</v>
       </c>
     </row>
-    <row r="253" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A253" s="2" t="s">
+    <row r="253" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A253" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="B253" s="2" t="s">
+      <c r="B253" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C253" s="2" t="s">
+      <c r="C253" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="D253" s="2" t="s">
+      <c r="D253" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="E253" s="2" t="s">
+      <c r="E253" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="F253" s="2" t="s">
+      <c r="F253" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="I253" s="2" t="s">
+      <c r="G253" s="20"/>
+      <c r="H253" s="20"/>
+      <c r="I253" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="K253" s="2" t="s">
+      <c r="J253" s="20"/>
+      <c r="K253" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="L253" s="3"/>
-      <c r="M253" s="2" t="s">
+      <c r="L253" s="21"/>
+      <c r="M253" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="O253" s="2" t="s">
+      <c r="N253" s="20"/>
+      <c r="O253" s="20" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="254" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A254" s="2" t="s">
+      <c r="P253" s="20"/>
+      <c r="Q253" s="20"/>
+      <c r="R253" s="20"/>
+      <c r="S253" s="20" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="254" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A254" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="B254" s="2" t="s">
+      <c r="B254" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C254" s="2" t="s">
+      <c r="C254" s="20" t="s">
         <v>592</v>
       </c>
-      <c r="D254" s="2" t="s">
+      <c r="D254" s="20" t="s">
         <v>593</v>
       </c>
-      <c r="E254" s="2" t="s">
+      <c r="E254" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="F254" s="2" t="s">
+      <c r="F254" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="I254" s="2" t="s">
+      <c r="G254" s="20"/>
+      <c r="H254" s="20"/>
+      <c r="I254" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="K254" s="2" t="s">
+      <c r="J254" s="20"/>
+      <c r="K254" s="20" t="s">
         <v>592</v>
       </c>
-      <c r="L254" s="3"/>
-      <c r="M254" s="2" t="s">
+      <c r="L254" s="21"/>
+      <c r="M254" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="O254" s="2" t="s">
+      <c r="N254" s="20"/>
+      <c r="O254" s="20" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="255" spans="1:15" ht="15.75" customHeight="1">
+      <c r="P254" s="20"/>
+      <c r="Q254" s="20"/>
+      <c r="R254" s="20"/>
+      <c r="S254" s="20" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="255" spans="1:19" ht="15.75" customHeight="1">
       <c r="A255" s="2" t="s">
         <v>141</v>
       </c>
@@ -19594,7 +19809,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="256" spans="1:15" ht="15.75" customHeight="1">
+    <row r="256" spans="1:19" ht="15.75" customHeight="1">
       <c r="A256" s="2" t="s">
         <v>147</v>
       </c>
@@ -19627,7 +19842,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="257" spans="1:15" ht="15.75" customHeight="1">
+    <row r="257" spans="1:19" ht="15.75" customHeight="1">
       <c r="A257" s="2" t="s">
         <v>151</v>
       </c>
@@ -19660,7 +19875,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="258" spans="1:15" ht="15.75" customHeight="1">
+    <row r="258" spans="1:19" ht="15.75" customHeight="1">
       <c r="A258" s="2" t="s">
         <v>155</v>
       </c>
@@ -19693,7 +19908,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="259" spans="1:15" ht="15.75" customHeight="1">
+    <row r="259" spans="1:19" ht="15.75" customHeight="1">
       <c r="A259" s="2" t="s">
         <v>159</v>
       </c>
@@ -19726,7 +19941,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="260" spans="1:15" ht="15.75" customHeight="1">
+    <row r="260" spans="1:19" ht="15.75" customHeight="1">
       <c r="A260" s="2" t="s">
         <v>162</v>
       </c>
@@ -19759,7 +19974,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="261" spans="1:15" ht="15.75" customHeight="1">
+    <row r="261" spans="1:19" ht="15.75" customHeight="1">
       <c r="A261" s="2" t="s">
         <v>165</v>
       </c>
@@ -19792,7 +20007,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="262" spans="1:15" ht="15.75" customHeight="1">
+    <row r="262" spans="1:19" ht="15.75" customHeight="1">
       <c r="A262" s="2" t="s">
         <v>168</v>
       </c>
@@ -19825,40 +20040,50 @@
         <v>609</v>
       </c>
     </row>
-    <row r="263" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A263" s="2" t="s">
+    <row r="263" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A263" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="B263" s="2" t="s">
+      <c r="B263" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C263" s="2" t="s">
+      <c r="C263" s="20" t="s">
         <v>610</v>
       </c>
-      <c r="D263" s="2" t="s">
+      <c r="D263" s="20" t="s">
         <v>611</v>
       </c>
-      <c r="E263" s="2" t="s">
+      <c r="E263" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="F263" s="2" t="s">
+      <c r="F263" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="I263" s="2" t="s">
+      <c r="G263" s="20"/>
+      <c r="H263" s="20"/>
+      <c r="I263" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="K263" s="2" t="s">
+      <c r="J263" s="20"/>
+      <c r="K263" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="L263" s="3"/>
-      <c r="M263" s="2" t="s">
+      <c r="L263" s="21"/>
+      <c r="M263" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="O263" s="2" t="s">
+      <c r="N263" s="20"/>
+      <c r="O263" s="20" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="264" spans="1:15" ht="15.75" customHeight="1">
+      <c r="P263" s="20"/>
+      <c r="Q263" s="20"/>
+      <c r="R263" s="20"/>
+      <c r="S263" s="20" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="264" spans="1:19" ht="15.75" customHeight="1">
       <c r="A264" s="2" t="s">
         <v>174</v>
       </c>
@@ -19891,7 +20116,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="265" spans="1:15" ht="15.75" customHeight="1">
+    <row r="265" spans="1:19" ht="15.75" customHeight="1">
       <c r="A265" s="2" t="s">
         <v>178</v>
       </c>
@@ -19924,7 +20149,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="266" spans="1:15" ht="15.75" customHeight="1">
+    <row r="266" spans="1:19" ht="15.75" customHeight="1">
       <c r="A266" s="2" t="s">
         <v>181</v>
       </c>
@@ -19957,7 +20182,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="267" spans="1:15" ht="15.75" customHeight="1">
+    <row r="267" spans="1:19" ht="15.75" customHeight="1">
       <c r="A267" s="2" t="s">
         <v>184</v>
       </c>
@@ -19990,7 +20215,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="268" spans="1:15" ht="15.75" customHeight="1">
+    <row r="268" spans="1:19" ht="15.75" customHeight="1">
       <c r="A268" s="2" t="s">
         <v>187</v>
       </c>
@@ -20020,7 +20245,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="269" spans="1:15" ht="15.75" customHeight="1">
+    <row r="269" spans="1:19" ht="15.75" customHeight="1">
       <c r="A269" s="2" t="s">
         <v>190</v>
       </c>
@@ -20053,7 +20278,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="270" spans="1:15" ht="15.75" customHeight="1">
+    <row r="270" spans="1:19" ht="15.75" customHeight="1">
       <c r="A270" s="2" t="s">
         <v>193</v>
       </c>
@@ -20086,7 +20311,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="271" spans="1:15" ht="15.75" customHeight="1">
+    <row r="271" spans="1:19" ht="15.75" customHeight="1">
       <c r="A271" s="2" t="s">
         <v>196</v>
       </c>
@@ -20119,7 +20344,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="272" spans="1:15" ht="15.75" customHeight="1">
+    <row r="272" spans="1:19" ht="15.75" customHeight="1">
       <c r="A272" s="2" t="s">
         <v>300</v>
       </c>
@@ -20152,67 +20377,89 @@
         <v>641</v>
       </c>
     </row>
-    <row r="273" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A273" s="2" t="s">
+    <row r="273" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A273" s="20" t="s">
         <v>304</v>
       </c>
-      <c r="B273" s="2" t="s">
+      <c r="B273" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C273" s="2" t="s">
+      <c r="C273" s="20" t="s">
         <v>642</v>
       </c>
-      <c r="D273" s="2" t="s">
+      <c r="D273" s="20" t="s">
         <v>643</v>
       </c>
-      <c r="E273" s="2" t="s">
+      <c r="E273" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="F273" s="2" t="s">
+      <c r="F273" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="I273" s="2" t="s">
+      <c r="G273" s="20"/>
+      <c r="H273" s="20"/>
+      <c r="I273" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="L273" s="3"/>
-      <c r="M273" s="2" t="s">
+      <c r="J273" s="20"/>
+      <c r="K273" s="20"/>
+      <c r="L273" s="21"/>
+      <c r="M273" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="O273" s="2" t="s">
+      <c r="N273" s="20"/>
+      <c r="O273" s="20" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="274" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A274" s="2" t="s">
+      <c r="P273" s="20"/>
+      <c r="Q273" s="20"/>
+      <c r="R273" s="20"/>
+      <c r="S273" s="20" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="274" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A274" s="20" t="s">
         <v>308</v>
       </c>
-      <c r="B274" s="2" t="s">
+      <c r="B274" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C274" s="2" t="s">
+      <c r="C274" s="20" t="s">
         <v>645</v>
       </c>
-      <c r="D274" s="2" t="s">
+      <c r="D274" s="20" t="s">
         <v>646</v>
       </c>
-      <c r="E274" s="2" t="s">
+      <c r="E274" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="F274" s="2" t="s">
+      <c r="F274" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="I274" s="2" t="s">
+      <c r="G274" s="20"/>
+      <c r="H274" s="20"/>
+      <c r="I274" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="L274" s="3"/>
-      <c r="M274" s="2" t="s">
+      <c r="J274" s="20"/>
+      <c r="K274" s="20"/>
+      <c r="L274" s="21"/>
+      <c r="M274" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="O274" s="2" t="s">
+      <c r="N274" s="20"/>
+      <c r="O274" s="20" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="275" spans="1:15" ht="15.75" customHeight="1">
+      <c r="P274" s="20"/>
+      <c r="Q274" s="20"/>
+      <c r="R274" s="20"/>
+      <c r="S274" s="20" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="275" spans="1:19" ht="15.75" customHeight="1">
       <c r="A275" s="2" t="s">
         <v>313</v>
       </c>
@@ -20242,7 +20489,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="276" spans="1:15" ht="15.75" customHeight="1">
+    <row r="276" spans="1:19" ht="15.75" customHeight="1">
       <c r="A276" s="2" t="s">
         <v>317</v>
       </c>
@@ -20275,7 +20522,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="277" spans="1:15" ht="15.75" customHeight="1">
+    <row r="277" spans="1:19" ht="15.75" customHeight="1">
       <c r="A277" s="2" t="s">
         <v>242</v>
       </c>
@@ -20308,7 +20555,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="278" spans="1:15" ht="15.75" customHeight="1">
+    <row r="278" spans="1:19" ht="15.75" customHeight="1">
       <c r="A278" s="2" t="s">
         <v>324</v>
       </c>
@@ -20338,7 +20585,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="279" spans="1:15" ht="15.75" customHeight="1">
+    <row r="279" spans="1:19" ht="15.75" customHeight="1">
       <c r="A279" s="2" t="s">
         <v>328</v>
       </c>
@@ -20371,7 +20618,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="280" spans="1:15" ht="15.75" customHeight="1">
+    <row r="280" spans="1:19" ht="15.75" customHeight="1">
       <c r="A280" s="2" t="s">
         <v>332</v>
       </c>
@@ -20401,7 +20648,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="281" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="281" spans="1:19" ht="15.75" hidden="1" customHeight="1">
       <c r="A281" s="2" t="s">
         <v>64</v>
       </c>
@@ -20431,7 +20678,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="282" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="282" spans="1:19" ht="15.75" hidden="1" customHeight="1">
       <c r="A282" s="2" t="s">
         <v>70</v>
       </c>
@@ -20461,7 +20708,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="283" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="283" spans="1:19" ht="15.75" hidden="1" customHeight="1">
       <c r="A283" s="2" t="s">
         <v>73</v>
       </c>
@@ -20491,7 +20738,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="284" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="284" spans="1:19" ht="15.75" hidden="1" customHeight="1">
       <c r="A284" s="2" t="s">
         <v>76</v>
       </c>
@@ -20521,7 +20768,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="285" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="285" spans="1:19" ht="15.75" hidden="1" customHeight="1">
       <c r="A285" s="2" t="s">
         <v>79</v>
       </c>
@@ -20554,7 +20801,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="286" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="286" spans="1:19" ht="15.75" hidden="1" customHeight="1">
       <c r="A286" s="2" t="s">
         <v>85</v>
       </c>
@@ -20587,7 +20834,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="287" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="287" spans="1:19" ht="15.75" hidden="1" customHeight="1">
       <c r="A287" s="2" t="s">
         <v>88</v>
       </c>
@@ -20620,7 +20867,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="288" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+    <row r="288" spans="1:19" ht="15.75" hidden="1" customHeight="1">
       <c r="A288" s="2" t="s">
         <v>83</v>
       </c>
@@ -22878,24 +23125,24 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" customWidth="1"/>
-    <col min="5" max="5" width="23.5" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" customWidth="1"/>
-    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" customWidth="1"/>
-    <col min="12" max="13" width="12.83203125" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" customWidth="1"/>
-    <col min="15" max="15" width="13.6640625" customWidth="1"/>
-    <col min="16" max="16" width="15.33203125" customWidth="1"/>
-    <col min="17" max="18" width="15.5" customWidth="1"/>
-    <col min="19" max="26" width="8.6640625" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" customWidth="1"/>
+    <col min="12" max="13" width="12.85546875" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" customWidth="1"/>
+    <col min="17" max="18" width="15.42578125" customWidth="1"/>
+    <col min="19" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -23955,17 +24202,17 @@
       <selection pane="bottomRight" activeCell="B383" sqref="B383"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.1640625" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" customWidth="1"/>
-    <col min="6" max="6" width="26.1640625" customWidth="1"/>
-    <col min="7" max="7" width="17.5" customWidth="1"/>
-    <col min="8" max="8" width="26.1640625" customWidth="1"/>
-    <col min="9" max="26" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="26.140625" customWidth="1"/>
+    <col min="9" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -34245,12 +34492,12 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -35296,24 +35543,23 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H790"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D203" sqref="D203"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="41.33203125" customWidth="1"/>
-    <col min="3" max="3" width="27.1640625" customWidth="1"/>
-    <col min="4" max="4" width="46.83203125" customWidth="1"/>
-    <col min="5" max="6" width="18.6640625" customWidth="1"/>
-    <col min="7" max="7" width="19.5" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="41.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="4" max="4" width="46.85546875" customWidth="1"/>
+    <col min="5" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -35342,7 +35588,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16" hidden="1">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>236</v>
       </c>
@@ -35356,7 +35602,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16" hidden="1">
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>239</v>
       </c>
@@ -35370,7 +35616,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16" hidden="1">
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>316</v>
       </c>
@@ -35384,7 +35630,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16" hidden="1">
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>272</v>
       </c>
@@ -35398,7 +35644,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16" hidden="1">
+    <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
         <v>253</v>
       </c>
@@ -35412,7 +35658,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16" hidden="1">
+    <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
         <v>265</v>
       </c>
@@ -35426,7 +35672,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16" hidden="1">
+    <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
         <v>268</v>
       </c>
@@ -35440,7 +35686,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16" hidden="1">
+    <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
         <v>259</v>
       </c>
@@ -35454,7 +35700,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16" hidden="1">
+    <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
         <v>262</v>
       </c>
@@ -35468,7 +35714,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16" hidden="1">
+    <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
         <v>247</v>
       </c>
@@ -35482,7 +35728,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16" hidden="1">
+    <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
         <v>250</v>
       </c>
@@ -35496,7 +35742,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16" hidden="1">
+    <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
         <v>230</v>
       </c>
@@ -35510,7 +35756,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="32" hidden="1">
+    <row r="14" spans="1:8" ht="45">
       <c r="A14" s="2" t="s">
         <v>233</v>
       </c>
@@ -35524,7 +35770,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16" hidden="1">
+    <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
         <v>321</v>
       </c>
@@ -35538,7 +35784,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>256</v>
       </c>
@@ -35552,7 +35798,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>312</v>
       </c>
@@ -35566,7 +35812,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>287</v>
       </c>
@@ -35580,7 +35826,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>290</v>
       </c>
@@ -35594,7 +35840,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>293</v>
       </c>
@@ -35608,7 +35854,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>296</v>
       </c>
@@ -35622,7 +35868,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>323</v>
       </c>
@@ -35636,7 +35882,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>284</v>
       </c>
@@ -35650,7 +35896,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>281</v>
       </c>
@@ -35664,7 +35910,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="25" spans="1:4" ht="15.75" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>299</v>
       </c>
@@ -35678,7 +35924,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>303</v>
       </c>
@@ -35692,7 +35938,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>275</v>
       </c>
@@ -35706,7 +35952,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>278</v>
       </c>
@@ -35720,7 +35966,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>307</v>
       </c>
@@ -35734,7 +35980,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1">
       <c r="A30" s="2" t="s">
         <v>243</v>
       </c>
@@ -35748,7 +35994,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="31" spans="1:4" ht="15.75" customHeight="1">
       <c r="A31" s="2" t="s">
         <v>208</v>
       </c>
@@ -35762,7 +36008,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="32" spans="1:4" ht="15.75" customHeight="1">
       <c r="A32" s="2" t="s">
         <v>209</v>
       </c>
@@ -35776,7 +36022,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="33" spans="1:4" ht="15.75" customHeight="1">
       <c r="A33" s="2" t="s">
         <v>210</v>
       </c>
@@ -35790,7 +36036,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="34" spans="1:4" ht="15.75" customHeight="1">
       <c r="A34" s="2" t="s">
         <v>359</v>
       </c>
@@ -35804,7 +36050,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="35" spans="1:4" ht="15.75" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>343</v>
       </c>
@@ -35818,7 +36064,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="36" spans="1:4" ht="15.75" customHeight="1">
       <c r="A36" s="2" t="s">
         <v>347</v>
       </c>
@@ -35832,7 +36078,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="37" spans="1:4" ht="15.75" customHeight="1">
       <c r="A37" s="2" t="s">
         <v>351</v>
       </c>
@@ -35846,7 +36092,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="38" spans="1:4" ht="15.75" customHeight="1">
       <c r="A38" s="2" t="s">
         <v>331</v>
       </c>
@@ -35860,7 +36106,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="39" spans="1:4" ht="15.75" customHeight="1">
       <c r="A39" s="2" t="s">
         <v>339</v>
       </c>
@@ -35874,7 +36120,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="40" spans="1:4" ht="15.75" customHeight="1">
       <c r="A40" s="2" t="s">
         <v>335</v>
       </c>
@@ -35888,7 +36134,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="41" spans="1:4" ht="15.75" customHeight="1">
       <c r="A41" s="2" t="s">
         <v>221</v>
       </c>
@@ -35902,7 +36148,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="42" spans="1:4" ht="15.75" customHeight="1">
       <c r="A42" s="2" t="s">
         <v>224</v>
       </c>
@@ -35916,7 +36162,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="43" spans="1:4" ht="15.75" customHeight="1">
       <c r="A43" s="2" t="s">
         <v>227</v>
       </c>
@@ -35930,7 +36176,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="96" hidden="1">
+    <row r="44" spans="1:4" ht="105">
       <c r="A44" s="2" t="s">
         <v>355</v>
       </c>
@@ -35944,7 +36190,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="45" spans="1:4" ht="15.75" customHeight="1">
       <c r="A45" s="2" t="s">
         <v>211</v>
       </c>
@@ -35958,7 +36204,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="46" spans="1:4" ht="15.75" customHeight="1">
       <c r="A46" s="2" t="s">
         <v>212</v>
       </c>
@@ -35972,7 +36218,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="47" spans="1:4" ht="15.75" customHeight="1">
       <c r="A47" s="2" t="s">
         <v>216</v>
       </c>
@@ -35986,7 +36232,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="48" spans="1:4" ht="15.75" customHeight="1">
       <c r="A48" s="2" t="s">
         <v>213</v>
       </c>
@@ -36000,7 +36246,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1">
       <c r="A49" s="2" t="s">
         <v>200</v>
       </c>
@@ -36014,7 +36260,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1">
       <c r="A50" s="2" t="s">
         <v>199</v>
       </c>
@@ -36028,7 +36274,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1">
       <c r="A51" s="2" t="s">
         <v>204</v>
       </c>
@@ -36042,7 +36288,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="52" spans="1:4" ht="15.75" customHeight="1">
       <c r="A52" s="2" t="s">
         <v>207</v>
       </c>
@@ -36056,7 +36302,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1">
       <c r="A53" s="2" t="s">
         <v>218</v>
       </c>
@@ -36070,7 +36316,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1">
       <c r="A54" s="2" t="s">
         <v>327</v>
       </c>
@@ -36084,7 +36330,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="55" spans="1:4" ht="15.75" customHeight="1">
       <c r="A55" s="2" t="s">
         <v>217</v>
       </c>
@@ -36098,7 +36344,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="56" spans="1:4" ht="15.75" customHeight="1">
       <c r="A56" s="2" t="s">
         <v>201</v>
       </c>
@@ -36266,7 +36512,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="224">
+    <row r="68" spans="1:4" ht="255">
       <c r="A68" s="2" t="s">
         <v>427</v>
       </c>
@@ -36756,7 +37002,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="103" spans="1:4" ht="15.75" customHeight="1">
       <c r="A103" s="2" t="s">
         <v>478</v>
       </c>
@@ -36770,7 +37016,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="104" spans="1:4" ht="15.75" customHeight="1">
       <c r="A104" s="2" t="s">
         <v>477</v>
       </c>
@@ -36784,7 +37030,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="105" spans="1:4" ht="15.75" customHeight="1">
       <c r="A105" s="2" t="s">
         <v>487</v>
       </c>
@@ -36798,7 +37044,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="106" spans="1:4" ht="15.75" customHeight="1">
       <c r="A106" s="2" t="s">
         <v>464</v>
       </c>
@@ -36812,7 +37058,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="107" spans="1:4" ht="15.75" customHeight="1">
       <c r="A107" s="2" t="s">
         <v>463</v>
       </c>
@@ -36826,7 +37072,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="108" spans="1:4" ht="15.75" customHeight="1">
       <c r="A108" s="2" t="s">
         <v>488</v>
       </c>
@@ -36840,7 +37086,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="109" spans="1:4" ht="15.75" customHeight="1">
       <c r="A109" s="2" t="s">
         <v>452</v>
       </c>
@@ -36854,7 +37100,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="110" spans="1:4" ht="15.75" customHeight="1">
       <c r="A110" s="2" t="s">
         <v>453</v>
       </c>
@@ -36868,7 +37114,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="111" spans="1:4" ht="15.75" customHeight="1">
       <c r="A111" s="2" t="s">
         <v>454</v>
       </c>
@@ -36882,7 +37128,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="112" spans="1:4" ht="15.75" customHeight="1">
       <c r="A112" s="2" t="s">
         <v>484</v>
       </c>
@@ -36896,7 +37142,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="113" spans="1:4" ht="15.75" customHeight="1">
       <c r="A113" s="2" t="s">
         <v>483</v>
       </c>
@@ -36910,7 +37156,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="114" spans="1:4" ht="15.75" customHeight="1">
       <c r="A114" s="2" t="s">
         <v>485</v>
       </c>
@@ -36924,7 +37170,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="115" spans="1:4" ht="15.75" customHeight="1">
       <c r="A115" s="2" t="s">
         <v>474</v>
       </c>
@@ -36938,7 +37184,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="116" spans="1:4" ht="15.75" customHeight="1">
       <c r="A116" s="2" t="s">
         <v>461</v>
       </c>
@@ -36952,7 +37198,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="117" spans="1:4" ht="15.75" customHeight="1">
       <c r="A117" s="2" t="s">
         <v>462</v>
       </c>
@@ -36966,7 +37212,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="118" spans="1:4" ht="15.75" customHeight="1">
       <c r="A118" s="2" t="s">
         <v>475</v>
       </c>
@@ -36980,7 +37226,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="119" spans="1:4" ht="15.75" customHeight="1">
       <c r="A119" s="2" t="s">
         <v>486</v>
       </c>
@@ -36994,7 +37240,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="120" spans="1:4" ht="15.75" customHeight="1">
       <c r="A120" s="2" t="s">
         <v>482</v>
       </c>
@@ -37008,7 +37254,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="121" spans="1:4" ht="15.75" customHeight="1">
       <c r="A121" s="2" t="s">
         <v>481</v>
       </c>
@@ -37022,7 +37268,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="122" spans="1:4" ht="15.75" customHeight="1">
       <c r="A122" s="2" t="s">
         <v>476</v>
       </c>
@@ -37036,7 +37282,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="123" spans="1:4" ht="15.75" customHeight="1">
       <c r="A123" s="2" t="s">
         <v>458</v>
       </c>
@@ -37050,7 +37296,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="124" spans="1:4" ht="15.75" customHeight="1">
       <c r="A124" s="2" t="s">
         <v>459</v>
       </c>
@@ -37064,7 +37310,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="125" spans="1:4" ht="15.75" customHeight="1">
       <c r="A125" s="2" t="s">
         <v>490</v>
       </c>
@@ -37078,7 +37324,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="126" spans="1:4" ht="15.75" customHeight="1">
       <c r="A126" s="2" t="s">
         <v>489</v>
       </c>
@@ -37092,7 +37338,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="127" spans="1:4" ht="15.75" customHeight="1">
       <c r="A127" s="2" t="s">
         <v>491</v>
       </c>
@@ -37106,7 +37352,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="128" spans="1:4" ht="15.75" customHeight="1">
       <c r="A128" s="2" t="s">
         <v>468</v>
       </c>
@@ -37120,7 +37366,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="129" spans="1:4" ht="15.75" customHeight="1">
       <c r="A129" s="2" t="s">
         <v>470</v>
       </c>
@@ -37134,7 +37380,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="130" spans="1:4" ht="15.75" customHeight="1">
       <c r="A130" s="2" t="s">
         <v>472</v>
       </c>
@@ -37148,7 +37394,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="131" spans="1:4" ht="15.75" customHeight="1">
       <c r="A131" s="2" t="s">
         <v>473</v>
       </c>
@@ -37162,7 +37408,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="132" spans="1:4" ht="15.75" customHeight="1">
       <c r="A132" s="2" t="s">
         <v>480</v>
       </c>
@@ -37176,7 +37422,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="133" spans="1:4" ht="15.75" customHeight="1">
       <c r="A133" s="2" t="s">
         <v>479</v>
       </c>
@@ -37190,7 +37436,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="134" spans="1:4" ht="15.75" customHeight="1">
       <c r="A134" s="2" t="s">
         <v>455</v>
       </c>
@@ -37204,7 +37450,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="135" spans="1:4" ht="15.75" customHeight="1">
       <c r="A135" s="2" t="s">
         <v>456</v>
       </c>
@@ -37218,7 +37464,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="136" spans="1:4" ht="15.75" customHeight="1">
       <c r="A136" s="2" t="s">
         <v>460</v>
       </c>
@@ -37232,7 +37478,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="137" spans="1:4" ht="15.75" customHeight="1">
       <c r="A137" s="2" t="s">
         <v>457</v>
       </c>
@@ -37246,7 +37492,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="138" spans="1:4" ht="15.75" customHeight="1">
       <c r="A138" s="2" t="s">
         <v>443</v>
       </c>
@@ -37260,7 +37506,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="139" spans="1:4" ht="15.75" customHeight="1">
       <c r="A139" s="2" t="s">
         <v>444</v>
       </c>
@@ -37274,7 +37520,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="140" spans="1:4" ht="15.75" customHeight="1">
       <c r="A140" s="2" t="s">
         <v>448</v>
       </c>
@@ -37288,7 +37534,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="141" spans="1:4" ht="15.75" customHeight="1">
       <c r="A141" s="2" t="s">
         <v>449</v>
       </c>
@@ -37302,7 +37548,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="142" spans="1:4" ht="15.75" customHeight="1">
       <c r="A142" s="2" t="s">
         <v>451</v>
       </c>
@@ -37316,7 +37562,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="143" spans="1:4" ht="15.75" customHeight="1">
       <c r="A143" s="2" t="s">
         <v>446</v>
       </c>
@@ -37330,7 +37576,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="144" spans="1:4" ht="15.75" customHeight="1">
       <c r="A144" s="2" t="s">
         <v>447</v>
       </c>
@@ -37344,7 +37590,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="145" spans="1:4" ht="15.75" customHeight="1">
       <c r="A145" s="2" t="s">
         <v>450</v>
       </c>
@@ -37358,7 +37604,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="146" spans="1:4" ht="15.75" customHeight="1">
       <c r="A146" s="2" t="s">
         <v>445</v>
       </c>
@@ -37372,7 +37618,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="147" spans="1:4" ht="15.75" customHeight="1">
       <c r="A147" s="2" t="s">
         <v>465</v>
       </c>
@@ -37386,7 +37632,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="148" spans="1:4" ht="15.75" customHeight="1">
       <c r="A148" s="2" t="s">
         <v>466</v>
       </c>
@@ -37400,7 +37646,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="149" spans="1:4" ht="15.75" customHeight="1">
       <c r="A149" s="2" t="s">
         <v>529</v>
       </c>
@@ -37414,7 +37660,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="150" spans="1:4" ht="15.75" customHeight="1">
       <c r="A150" s="2" t="s">
         <v>528</v>
       </c>
@@ -37428,7 +37674,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="151" spans="1:4" ht="15.75" customHeight="1">
       <c r="A151" s="2" t="s">
         <v>534</v>
       </c>
@@ -37442,7 +37688,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="152" spans="1:4" ht="15.75" customHeight="1">
       <c r="A152" s="2" t="s">
         <v>513</v>
       </c>
@@ -37456,7 +37702,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="153" spans="1:4" ht="15.75" customHeight="1">
       <c r="A153" s="2" t="s">
         <v>512</v>
       </c>
@@ -37470,7 +37716,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="154" spans="1:4" ht="15.75" customHeight="1">
       <c r="A154" s="2" t="s">
         <v>501</v>
       </c>
@@ -37484,7 +37730,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="155" spans="1:4" ht="15.75" customHeight="1">
       <c r="A155" s="2" t="s">
         <v>502</v>
       </c>
@@ -37498,7 +37744,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="156" spans="1:4" ht="15.75" customHeight="1">
       <c r="A156" s="2" t="s">
         <v>503</v>
       </c>
@@ -37512,7 +37758,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="157" spans="1:4" ht="15.75" customHeight="1">
       <c r="A157" s="2" t="s">
         <v>526</v>
       </c>
@@ -37526,7 +37772,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="158" spans="1:4" ht="15.75" customHeight="1">
       <c r="A158" s="2" t="s">
         <v>510</v>
       </c>
@@ -37540,7 +37786,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="159" spans="1:4" ht="15.75" customHeight="1">
       <c r="A159" s="2" t="s">
         <v>511</v>
       </c>
@@ -37554,7 +37800,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="160" spans="1:4" ht="15.75" customHeight="1">
       <c r="A160" s="2" t="s">
         <v>527</v>
       </c>
@@ -37568,7 +37814,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="161" spans="1:4" ht="15.75" customHeight="1">
       <c r="A161" s="2" t="s">
         <v>533</v>
       </c>
@@ -37582,7 +37828,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="162" spans="1:4" ht="15.75" customHeight="1">
       <c r="A162" s="2" t="s">
         <v>532</v>
       </c>
@@ -37596,7 +37842,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="163" spans="1:4" ht="15.75" customHeight="1">
       <c r="A163" s="2" t="s">
         <v>507</v>
       </c>
@@ -37610,7 +37856,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="164" spans="1:4" ht="15.75" customHeight="1">
       <c r="A164" s="2" t="s">
         <v>545</v>
       </c>
@@ -37624,7 +37870,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="165" spans="1:4" ht="15.75" customHeight="1">
       <c r="A165" s="2" t="s">
         <v>548</v>
       </c>
@@ -37638,7 +37884,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="166" spans="1:4" ht="15.75" customHeight="1">
       <c r="A166" s="2" t="s">
         <v>552</v>
       </c>
@@ -37652,7 +37898,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="167" spans="1:4" ht="15.75" customHeight="1">
       <c r="A167" s="2" t="s">
         <v>508</v>
       </c>
@@ -37666,7 +37912,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="168" spans="1:4" ht="15.75" customHeight="1">
       <c r="A168" s="2" t="s">
         <v>520</v>
       </c>
@@ -37680,7 +37926,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="169" spans="1:4" ht="15.75" customHeight="1">
       <c r="A169" s="2" t="s">
         <v>522</v>
       </c>
@@ -37694,7 +37940,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="170" spans="1:4" ht="15.75" customHeight="1">
       <c r="A170" s="2" t="s">
         <v>524</v>
       </c>
@@ -37708,7 +37954,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="171" spans="1:4" ht="15.75" customHeight="1">
       <c r="A171" s="2" t="s">
         <v>518</v>
       </c>
@@ -37722,7 +37968,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="172" spans="1:4" ht="15.75" customHeight="1">
       <c r="A172" s="2" t="s">
         <v>525</v>
       </c>
@@ -37736,7 +37982,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="173" spans="1:4" ht="15.75" customHeight="1">
       <c r="A173" s="2" t="s">
         <v>531</v>
       </c>
@@ -37750,7 +37996,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="174" spans="1:4" ht="15.75" customHeight="1">
       <c r="A174" s="2" t="s">
         <v>530</v>
       </c>
@@ -37764,7 +38010,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="175" spans="1:4" ht="15.75" customHeight="1">
       <c r="A175" s="2" t="s">
         <v>504</v>
       </c>
@@ -37778,7 +38024,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="176" spans="1:4" ht="15.75" customHeight="1">
       <c r="A176" s="2" t="s">
         <v>505</v>
       </c>
@@ -37792,7 +38038,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="177" spans="1:4" ht="15.75" customHeight="1">
       <c r="A177" s="2" t="s">
         <v>509</v>
       </c>
@@ -37806,7 +38052,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="178" spans="1:4" ht="15.75" customHeight="1">
       <c r="A178" s="2" t="s">
         <v>506</v>
       </c>
@@ -37820,7 +38066,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="179" spans="1:4" ht="15.75" customHeight="1">
       <c r="A179" s="2" t="s">
         <v>538</v>
       </c>
@@ -37834,7 +38080,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="180" spans="1:4" ht="15.75" customHeight="1">
       <c r="A180" s="2" t="s">
         <v>542</v>
       </c>
@@ -37848,7 +38094,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="181" spans="1:4" ht="15.75" customHeight="1">
       <c r="A181" s="2" t="s">
         <v>492</v>
       </c>
@@ -37862,7 +38108,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="182" spans="1:4" ht="15.75" customHeight="1">
       <c r="A182" s="2" t="s">
         <v>493</v>
       </c>
@@ -37876,7 +38122,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="183" spans="1:4" ht="15.75" customHeight="1">
       <c r="A183" s="2" t="s">
         <v>497</v>
       </c>
@@ -37890,7 +38136,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="184" spans="1:4" ht="15.75" customHeight="1">
       <c r="A184" s="2" t="s">
         <v>498</v>
       </c>
@@ -37904,7 +38150,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="185" spans="1:4" ht="15.75" customHeight="1">
       <c r="A185" s="2" t="s">
         <v>500</v>
       </c>
@@ -37918,7 +38164,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="186" spans="1:4" ht="15.75" customHeight="1">
       <c r="A186" s="2" t="s">
         <v>495</v>
       </c>
@@ -37932,7 +38178,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="187" spans="1:4" ht="15.75" customHeight="1">
       <c r="A187" s="2" t="s">
         <v>496</v>
       </c>
@@ -37946,7 +38192,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="188" spans="1:4" ht="15.75" customHeight="1">
       <c r="A188" s="2" t="s">
         <v>499</v>
       </c>
@@ -37960,7 +38206,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="189" spans="1:4" ht="15.75" customHeight="1">
       <c r="A189" s="2" t="s">
         <v>494</v>
       </c>
@@ -37974,7 +38220,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="190" spans="1:4" ht="15.75" customHeight="1">
       <c r="A190" s="2" t="s">
         <v>514</v>
       </c>
@@ -37988,7 +38234,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="191" spans="1:4" ht="15.75" customHeight="1">
       <c r="A191" s="2" t="s">
         <v>515</v>
       </c>
@@ -38002,7 +38248,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="192" spans="1:4" ht="15.75" customHeight="1">
       <c r="A192" s="2" t="s">
         <v>583</v>
       </c>
@@ -38016,7 +38262,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="193" spans="1:4" ht="15.75" customHeight="1">
       <c r="A193" s="2" t="s">
         <v>584</v>
       </c>
@@ -38030,7 +38276,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="194" spans="1:4" ht="15.75" customHeight="1">
       <c r="A194" s="2" t="s">
         <v>585</v>
       </c>
@@ -38044,7 +38290,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="195" spans="1:4" ht="15.75" customHeight="1">
       <c r="A195" s="2" t="s">
         <v>588</v>
       </c>
@@ -38058,7 +38304,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="196" spans="1:4" ht="15.75" customHeight="1">
       <c r="A196" s="2" t="s">
         <v>559</v>
       </c>
@@ -38072,7 +38318,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="197" spans="1:4" ht="15.75" customHeight="1">
       <c r="A197" s="2" t="s">
         <v>579</v>
       </c>
@@ -38086,7 +38332,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="198" spans="1:4" ht="15.75" customHeight="1">
       <c r="A198" s="2" t="s">
         <v>615</v>
       </c>
@@ -38100,7 +38346,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="199" spans="1:4" ht="15.75" customHeight="1">
       <c r="A199" s="2" t="s">
         <v>619</v>
       </c>
@@ -38114,7 +38360,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="200" spans="1:4" ht="15.75" customHeight="1">
       <c r="A200" s="2" t="s">
         <v>604</v>
       </c>
@@ -38128,7 +38374,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="201" spans="1:4" ht="15.75" customHeight="1">
       <c r="A201" s="2" t="s">
         <v>605</v>
       </c>
@@ -38142,7 +38388,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="32" hidden="1">
+    <row r="202" spans="1:4" ht="30">
       <c r="A202" s="2" t="s">
         <v>601</v>
       </c>
@@ -38156,7 +38402,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="176" hidden="1">
+    <row r="203" spans="1:4" ht="180">
       <c r="A203" s="2" t="s">
         <v>582</v>
       </c>
@@ -38170,7 +38416,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="204" spans="1:4" ht="15.75" customHeight="1">
       <c r="A204" s="2" t="s">
         <v>657</v>
       </c>
@@ -38184,7 +38430,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="205" spans="1:4" ht="15.75" customHeight="1">
       <c r="A205" s="2" t="s">
         <v>664</v>
       </c>
@@ -38198,7 +38444,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="206" spans="1:4" ht="15.75" customHeight="1">
       <c r="A206" s="2" t="s">
         <v>608</v>
       </c>
@@ -38212,7 +38458,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="207" spans="1:4" ht="15.75" customHeight="1">
       <c r="A207" s="2" t="s">
         <v>631</v>
       </c>
@@ -38226,7 +38472,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="208" spans="1:4" ht="15.75" customHeight="1">
       <c r="A208" s="2" t="s">
         <v>609</v>
       </c>
@@ -38240,7 +38486,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="209" spans="1:4" ht="15.75" customHeight="1">
       <c r="A209" s="2" t="s">
         <v>612</v>
       </c>
@@ -38254,7 +38500,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="210" spans="1:4" ht="15.75" customHeight="1">
       <c r="A210" s="2" t="s">
         <v>634</v>
       </c>
@@ -38268,7 +38514,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="211" spans="1:4" ht="15.75" customHeight="1">
       <c r="A211" s="2" t="s">
         <v>638</v>
       </c>
@@ -38282,7 +38528,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="212" spans="1:4" ht="15.75" customHeight="1">
       <c r="A212" s="2" t="s">
         <v>628</v>
       </c>
@@ -38296,7 +38542,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="213" spans="1:4" ht="15.75" customHeight="1">
       <c r="A213" s="2" t="s">
         <v>598</v>
       </c>
@@ -38310,7 +38556,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="214" spans="1:4" ht="15.75" customHeight="1">
       <c r="A214" s="2" t="s">
         <v>660</v>
       </c>
@@ -38324,7 +38570,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="215" spans="1:4" ht="15.75" customHeight="1">
       <c r="A215" s="2" t="s">
         <v>594</v>
       </c>
@@ -38338,7 +38584,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="216" spans="1:4" ht="15.75" customHeight="1">
       <c r="A216" s="2" t="s">
         <v>622</v>
       </c>
@@ -38352,7 +38598,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="217" spans="1:4" ht="15.75" customHeight="1">
       <c r="A217" s="2" t="s">
         <v>597</v>
       </c>
@@ -38366,7 +38612,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="218" spans="1:4" ht="15.75" customHeight="1">
       <c r="A218" s="2" t="s">
         <v>667</v>
       </c>
@@ -38380,7 +38626,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="219" spans="1:4" ht="15.75" customHeight="1">
       <c r="A219" s="2" t="s">
         <v>589</v>
       </c>
@@ -38394,7 +38640,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="220" spans="1:4" ht="15.75" customHeight="1">
       <c r="A220" s="2" t="s">
         <v>590</v>
       </c>
@@ -38408,7 +38654,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="221" spans="1:4" ht="15.75" customHeight="1">
       <c r="A221" s="2" t="s">
         <v>653</v>
       </c>
@@ -38422,7 +38668,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="222" spans="1:4" ht="15.75" customHeight="1">
       <c r="A222" s="2" t="s">
         <v>647</v>
       </c>
@@ -38436,7 +38682,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="223" spans="1:4" ht="15.75" customHeight="1">
       <c r="A223" s="2" t="s">
         <v>644</v>
       </c>
@@ -38450,7 +38696,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="224" spans="1:4" ht="15.75" customHeight="1">
       <c r="A224" s="2" t="s">
         <v>595</v>
       </c>
@@ -38464,7 +38710,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="225" spans="1:4" ht="15.75" customHeight="1">
       <c r="A225" s="2" t="s">
         <v>591</v>
       </c>
@@ -38478,7 +38724,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="226" spans="1:4" ht="15.75" customHeight="1">
       <c r="A226" s="2" t="s">
         <v>557</v>
       </c>
@@ -38492,7 +38738,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="227" spans="1:4" ht="15.75" customHeight="1">
       <c r="A227" s="2" t="s">
         <v>556</v>
       </c>
@@ -38506,7 +38752,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="228" spans="1:4" ht="15.75" customHeight="1">
       <c r="A228" s="2" t="s">
         <v>553</v>
       </c>
@@ -38520,7 +38766,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="229" spans="1:4" ht="15.75" customHeight="1">
       <c r="A229" s="2" t="s">
         <v>555</v>
       </c>
@@ -38534,7 +38780,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="230" spans="1:4" ht="15.75" customHeight="1">
       <c r="A230" s="2" t="s">
         <v>568</v>
       </c>
@@ -38548,7 +38794,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="231" spans="1:4" ht="15.75" customHeight="1">
       <c r="A231" s="2" t="s">
         <v>571</v>
       </c>
@@ -38562,7 +38808,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="232" spans="1:4" ht="15.75" customHeight="1">
       <c r="A232" s="2" t="s">
         <v>562</v>
       </c>
@@ -38576,7 +38822,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="233" spans="1:4" ht="15.75" customHeight="1">
       <c r="A233" s="2" t="s">
         <v>565</v>
       </c>
@@ -38590,7 +38836,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="234" spans="1:4" ht="15.75" customHeight="1">
       <c r="A234" s="2" t="s">
         <v>576</v>
       </c>
@@ -38604,7 +38850,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="235" spans="1:4" ht="15.75" customHeight="1">
       <c r="A235" s="2" t="s">
         <v>573</v>
       </c>
@@ -38618,7 +38864,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="236" spans="1:4" ht="15.75" customHeight="1">
       <c r="A236" s="2" t="s">
         <v>572</v>
       </c>
@@ -38632,7 +38878,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="237" spans="1:4" ht="15.75" customHeight="1">
       <c r="A237" s="2" t="s">
         <v>554</v>
       </c>
@@ -38646,7 +38892,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="238" spans="1:4" ht="15.75" customHeight="1">
       <c r="A238" s="2" t="s">
         <v>641</v>
       </c>
@@ -38660,7 +38906,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="48" hidden="1">
+    <row r="239" spans="1:4" ht="23.25" customHeight="1">
       <c r="A239" s="2" t="s">
         <v>650</v>
       </c>
@@ -38674,7 +38920,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="240" spans="1:4" ht="15.75" customHeight="1">
       <c r="A240" s="2" t="s">
         <v>625</v>
       </c>
@@ -38688,7 +38934,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="241" spans="1:4" ht="15.75" customHeight="1">
       <c r="A241" s="2" t="s">
         <v>693</v>
       </c>
@@ -38702,7 +38948,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="242" spans="1:4" ht="15.75" customHeight="1">
       <c r="A242" s="2" t="s">
         <v>671</v>
       </c>
@@ -38716,7 +38962,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="243" spans="1:4" ht="15.75" customHeight="1">
       <c r="A243" s="2" t="s">
         <v>672</v>
       </c>
@@ -38730,7 +38976,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="244" spans="1:4" ht="15.75" customHeight="1">
       <c r="A244" s="2" t="s">
         <v>673</v>
       </c>
@@ -38744,7 +38990,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="245" spans="1:4" ht="15.75" customHeight="1">
       <c r="A245" s="2" t="s">
         <v>689</v>
       </c>
@@ -38758,7 +39004,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="246" spans="1:4" ht="15.75" customHeight="1">
       <c r="A246" s="2" t="s">
         <v>697</v>
       </c>
@@ -38772,7 +39018,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="247" spans="1:4" ht="15.75" customHeight="1">
       <c r="A247" s="2" t="s">
         <v>700</v>
       </c>
@@ -38786,7 +39032,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="248" spans="1:4" ht="15.75" customHeight="1">
       <c r="A248" s="2" t="s">
         <v>686</v>
       </c>
@@ -38800,7 +39046,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="249" spans="1:4" ht="15.75" customHeight="1">
       <c r="A249" s="2" t="s">
         <v>688</v>
       </c>
@@ -38814,7 +39060,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="250" spans="1:4" ht="15.75" customHeight="1">
       <c r="A250" s="2" t="s">
         <v>674</v>
       </c>
@@ -38828,7 +39074,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="251" spans="1:4" ht="15.75" customHeight="1">
       <c r="A251" s="2" t="s">
         <v>675</v>
       </c>
@@ -38842,7 +39088,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="252" spans="1:4" ht="15.75" customHeight="1">
       <c r="A252" s="2" t="s">
         <v>710</v>
       </c>
@@ -38856,7 +39102,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="253" spans="1:4" ht="15.75" customHeight="1">
       <c r="A253" s="2" t="s">
         <v>676</v>
       </c>
@@ -38870,7 +39116,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="254" spans="1:4" ht="15.75" customHeight="1">
       <c r="A254" s="2" t="s">
         <v>669</v>
       </c>
@@ -38884,7 +39130,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="255" spans="1:4" ht="15.75" customHeight="1">
       <c r="A255" s="2" t="s">
         <v>703</v>
       </c>
@@ -38898,7 +39144,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="256" spans="1:4" ht="15.75" customHeight="1">
       <c r="A256" s="2" t="s">
         <v>709</v>
       </c>
@@ -38912,7 +39158,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="257" spans="1:4" ht="15.75" customHeight="1">
       <c r="A257" s="2" t="s">
         <v>706</v>
       </c>
@@ -38926,7 +39172,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="258" spans="1:4" ht="15.75" customHeight="1">
       <c r="A258" s="2" t="s">
         <v>692</v>
       </c>
@@ -38940,7 +39186,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="259" spans="1:4" ht="15.75" customHeight="1">
       <c r="A259" s="2" t="s">
         <v>668</v>
       </c>
@@ -38954,7 +39200,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="260" spans="1:4" ht="15.75" customHeight="1">
       <c r="A260" s="2" t="s">
         <v>683</v>
       </c>
@@ -38968,7 +39214,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="261" spans="1:4" ht="15.75" customHeight="1">
       <c r="A261" s="2" t="s">
         <v>684</v>
       </c>
@@ -38982,7 +39228,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="262" spans="1:4" ht="15.75" customHeight="1">
       <c r="A262" s="2" t="s">
         <v>681</v>
       </c>
@@ -38996,7 +39242,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="263" spans="1:4" ht="15.75" customHeight="1">
       <c r="A263" s="2" t="s">
         <v>678</v>
       </c>
@@ -39010,7 +39256,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="264" spans="1:4" ht="15.75" customHeight="1">
       <c r="A264" s="2" t="s">
         <v>682</v>
       </c>
@@ -39024,7 +39270,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="265" spans="1:4" ht="15.75" customHeight="1">
       <c r="A265" s="2" t="s">
         <v>677</v>
       </c>
@@ -39038,7 +39284,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="266" spans="1:4" ht="15.75" customHeight="1">
       <c r="A266" s="2" t="s">
         <v>670</v>
       </c>
@@ -39052,7 +39298,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="267" spans="1:4" ht="15.75" customHeight="1">
       <c r="A267" s="2" t="s">
         <v>755</v>
       </c>
@@ -39066,7 +39312,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="268" spans="1:4" ht="15.75" customHeight="1">
       <c r="A268" s="2" t="s">
         <v>733</v>
       </c>
@@ -39080,7 +39326,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="269" spans="1:4" ht="15.75" customHeight="1">
       <c r="A269" s="2" t="s">
         <v>734</v>
       </c>
@@ -39094,7 +39340,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="270" spans="1:4" ht="15.75" customHeight="1">
       <c r="A270" s="2" t="s">
         <v>714</v>
       </c>
@@ -39108,7 +39354,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="271" spans="1:4" ht="15.75" customHeight="1">
       <c r="A271" s="2" t="s">
         <v>715</v>
       </c>
@@ -39122,7 +39368,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="272" spans="1:4" ht="15.75" customHeight="1">
       <c r="A272" s="2" t="s">
         <v>716</v>
       </c>
@@ -39136,7 +39382,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="273" spans="1:4" ht="15.75" customHeight="1">
       <c r="A273" s="2" t="s">
         <v>754</v>
       </c>
@@ -39150,7 +39396,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="274" spans="1:4" ht="15.75" customHeight="1">
       <c r="A274" s="2" t="s">
         <v>740</v>
       </c>
@@ -39164,7 +39410,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="275" spans="1:4" ht="15.75" customHeight="1">
       <c r="A275" s="2" t="s">
         <v>737</v>
       </c>
@@ -39178,7 +39424,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="276" spans="1:4" ht="15.75" customHeight="1">
       <c r="A276" s="2" t="s">
         <v>743</v>
       </c>
@@ -39192,7 +39438,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="277" spans="1:4" ht="15.75" customHeight="1">
       <c r="A277" s="2" t="s">
         <v>741</v>
       </c>
@@ -39206,7 +39452,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="278" spans="1:4" ht="15.75" customHeight="1">
       <c r="A278" s="2" t="s">
         <v>742</v>
       </c>
@@ -39220,7 +39466,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="279" spans="1:4" ht="15.75" customHeight="1">
       <c r="A279" s="2" t="s">
         <v>744</v>
       </c>
@@ -39234,7 +39480,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="280" spans="1:4" ht="15.75" customHeight="1">
       <c r="A280" s="2" t="s">
         <v>747</v>
       </c>
@@ -39248,7 +39494,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="281" spans="1:4" ht="15.75" customHeight="1">
       <c r="A281" s="2" t="s">
         <v>748</v>
       </c>
@@ -39262,7 +39508,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="282" spans="1:4" ht="15.75" customHeight="1">
       <c r="A282" s="2" t="s">
         <v>730</v>
       </c>
@@ -39276,7 +39522,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="283" spans="1:4" ht="15.75" customHeight="1">
       <c r="A283" s="2" t="s">
         <v>728</v>
       </c>
@@ -39290,7 +39536,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="284" spans="1:4" ht="15.75" customHeight="1">
       <c r="A284" s="2" t="s">
         <v>732</v>
       </c>
@@ -39304,7 +39550,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="285" spans="1:4" ht="15.75" customHeight="1">
       <c r="A285" s="2" t="s">
         <v>749</v>
       </c>
@@ -39318,7 +39564,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="286" spans="1:4" ht="15.75" customHeight="1">
       <c r="A286" s="2" t="s">
         <v>717</v>
       </c>
@@ -39332,7 +39578,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="287" spans="1:4" ht="15.75" customHeight="1">
       <c r="A287" s="2" t="s">
         <v>718</v>
       </c>
@@ -39346,7 +39592,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="288" spans="1:4" ht="15.75" customHeight="1">
       <c r="A288" s="2" t="s">
         <v>720</v>
       </c>
@@ -39360,7 +39606,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="289" spans="1:4" ht="15.75" customHeight="1">
       <c r="A289" s="2" t="s">
         <v>719</v>
       </c>
@@ -39374,7 +39620,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="290" spans="1:4" ht="15.75" customHeight="1">
       <c r="A290" s="2" t="s">
         <v>712</v>
       </c>
@@ -39388,7 +39634,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="291" spans="1:4" ht="15.75" customHeight="1">
       <c r="A291" s="2" t="s">
         <v>711</v>
       </c>
@@ -39402,7 +39648,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="292" spans="1:4" ht="15.75" customHeight="1">
       <c r="A292" s="2" t="s">
         <v>725</v>
       </c>
@@ -39416,7 +39662,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="293" spans="1:4" ht="15.75" customHeight="1">
       <c r="A293" s="2" t="s">
         <v>726</v>
       </c>
@@ -39430,7 +39676,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="294" spans="1:4" ht="15.75" customHeight="1">
       <c r="A294" s="2" t="s">
         <v>722</v>
       </c>
@@ -39444,7 +39690,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="295" spans="1:4" ht="15.75" customHeight="1">
       <c r="A295" s="2" t="s">
         <v>723</v>
       </c>
@@ -39458,7 +39704,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="296" spans="1:4" ht="15.75" customHeight="1">
       <c r="A296" s="2" t="s">
         <v>724</v>
       </c>
@@ -39472,7 +39718,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="297" spans="1:4" ht="15.75" customHeight="1">
       <c r="A297" s="2" t="s">
         <v>721</v>
       </c>
@@ -39486,7 +39732,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="298" spans="1:4" ht="15.75" customHeight="1">
       <c r="A298" s="2" t="s">
         <v>713</v>
       </c>
@@ -39500,7 +39746,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="299" spans="1:4" ht="15.75" customHeight="1">
       <c r="A299" s="2" t="s">
         <v>751</v>
       </c>
@@ -39514,7 +39760,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="300" spans="1:4" ht="15.75" customHeight="1">
       <c r="A300" s="2" t="s">
         <v>750</v>
       </c>
@@ -39528,7 +39774,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="15.75" hidden="1" customHeight="1">
+    <row r="301" spans="1:4" ht="15.75" customHeight="1">
       <c r="A301" s="2" t="s">
         <v>753</v>
       </c>
@@ -39542,7 +39788,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="302" spans="1:4" s="17" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+    <row r="302" spans="1:4" s="17" customFormat="1" ht="15.75" customHeight="1">
       <c r="A302" s="17" t="s">
         <v>1650</v>
       </c>
@@ -39557,7 +39803,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="303" spans="1:4" s="17" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+    <row r="303" spans="1:4" s="17" customFormat="1" ht="15.75" customHeight="1">
       <c r="A303" s="17" t="s">
         <v>1642</v>
       </c>
@@ -39572,7 +39818,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="304" spans="1:4" s="17" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+    <row r="304" spans="1:4" s="17" customFormat="1" ht="15.75" customHeight="1">
       <c r="A304" s="17" t="s">
         <v>1652</v>
       </c>
@@ -39587,7 +39833,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="305" spans="1:4" s="17" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+    <row r="305" spans="1:4" s="17" customFormat="1" ht="15.75" customHeight="1">
       <c r="A305" s="17" t="s">
         <v>1654</v>
       </c>
@@ -39602,7 +39848,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="306" spans="1:4" s="17" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+    <row r="306" spans="1:4" s="17" customFormat="1" ht="15.75" customHeight="1">
       <c r="A306" s="17" t="s">
         <v>1656</v>
       </c>
@@ -39617,7 +39863,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="307" spans="1:4" s="17" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+    <row r="307" spans="1:4" s="17" customFormat="1" ht="15.75" customHeight="1">
       <c r="A307" s="17" t="s">
         <v>1658</v>
       </c>
@@ -39632,7 +39878,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="308" spans="1:4" s="17" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+    <row r="308" spans="1:4" s="17" customFormat="1" ht="15.75" customHeight="1">
       <c r="A308" s="17" t="s">
         <v>1660</v>
       </c>
@@ -39647,7 +39893,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="309" spans="1:4" s="17" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+    <row r="309" spans="1:4" s="17" customFormat="1" ht="15.75" customHeight="1">
       <c r="A309" s="17" t="s">
         <v>1661</v>
       </c>
@@ -39662,7 +39908,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="310" spans="1:4" s="17" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+    <row r="310" spans="1:4" s="17" customFormat="1" ht="15.75" customHeight="1">
       <c r="A310" s="17" t="s">
         <v>177</v>
       </c>
@@ -40158,58 +40404,7 @@
     <row r="789" ht="15.75" customHeight="1"/>
     <row r="790" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:H310" xr:uid="{00000000-0009-0000-0000-000006000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="ADLBC.A1HI"/>
-        <filter val="ADLBC.A1LO"/>
-        <filter val="ADLBC.ABLFL"/>
-        <filter val="ADLBC.ADT"/>
-        <filter val="ADLBC.ADY"/>
-        <filter val="ADLBC.AENTMTFL"/>
-        <filter val="ADLBC.AGE"/>
-        <filter val="ADLBC.AGEGR1"/>
-        <filter val="ADLBC.AGEGR1N"/>
-        <filter val="ADLBC.ALBTRVAL"/>
-        <filter val="ADLBC.ANL01FL"/>
-        <filter val="ADLBC.ANRIND"/>
-        <filter val="ADLBC.AVAL"/>
-        <filter val="ADLBC.AVISIT"/>
-        <filter val="ADLBC.AVISITN"/>
-        <filter val="ADLBC.BASE"/>
-        <filter val="ADLBC.BNRIND"/>
-        <filter val="ADLBC.BR2A1HI"/>
-        <filter val="ADLBC.BR2A1LO"/>
-        <filter val="ADLBC.CHG"/>
-        <filter val="ADLBC.COMP24FL"/>
-        <filter val="ADLBC.DSRAEFL"/>
-        <filter val="ADLBC.LBNRIND"/>
-        <filter val="ADLBC.LBSEQ"/>
-        <filter val="ADLBC.LBSTRESN"/>
-        <filter val="ADLBC.PARAM"/>
-        <filter val="ADLBC.PARAMCD"/>
-        <filter val="ADLBC.PARAMN"/>
-        <filter val="ADLBC.PARCAT1"/>
-        <filter val="ADLBC.R2A1HI"/>
-        <filter val="ADLBC.R2A1LO"/>
-        <filter val="ADLBC.RACE"/>
-        <filter val="ADLBC.RACEN"/>
-        <filter val="ADLBC.SAFFL"/>
-        <filter val="ADLBC.SEX"/>
-        <filter val="ADLBC.STUDYID"/>
-        <filter val="ADLBC.SUBJID"/>
-        <filter val="ADLBC.TRTA"/>
-        <filter val="ADLBC.TRTAN"/>
-        <filter val="ADLBC.TRTEDT"/>
-        <filter val="ADLBC.TRTP"/>
-        <filter val="ADLBC.TRTPN"/>
-        <filter val="ADLBC.TRTSDT"/>
-        <filter val="ADLBC.USUBJID"/>
-        <filter val="ADLBC.VISIT"/>
-        <filter val="ADLBC.VISITNUM"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H310" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -40230,18 +40425,18 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="6.5" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="45.83203125" customWidth="1"/>
-    <col min="6" max="6" width="44.83203125" customWidth="1"/>
-    <col min="7" max="29" width="45.6640625" customWidth="1"/>
+    <col min="5" max="5" width="45.85546875" customWidth="1"/>
+    <col min="6" max="6" width="44.85546875" customWidth="1"/>
+    <col min="7" max="29" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="48">
+    <row r="1" spans="1:29" ht="45">
       <c r="A1" s="6" t="s">
         <v>1594</v>
       </c>
@@ -40284,7 +40479,7 @@
       <c r="AB1" s="8"/>
       <c r="AC1" s="8"/>
     </row>
-    <row r="2" spans="1:29" ht="196">
+    <row r="2" spans="1:29" ht="200.25">
       <c r="A2" s="8" t="s">
         <v>1599</v>
       </c>
@@ -40626,7 +40821,7 @@
       <c r="AB9" s="8"/>
       <c r="AC9" s="8"/>
     </row>
-    <row r="10" spans="1:29" ht="32">
+    <row r="10" spans="1:29" ht="30">
       <c r="A10" s="15" t="s">
         <v>1635</v>
       </c>
@@ -40669,7 +40864,7 @@
       <c r="AB10" s="8"/>
       <c r="AC10" s="8"/>
     </row>
-    <row r="11" spans="1:29" ht="144">
+    <row r="11" spans="1:29" ht="135">
       <c r="A11" s="15" t="s">
         <v>1635</v>
       </c>
@@ -71389,12 +71584,12 @@
       <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="62.5" customWidth="1"/>
-    <col min="3" max="4" width="19.5" customWidth="1"/>
-    <col min="5" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="62.42578125" customWidth="1"/>
+    <col min="3" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/metadata/specs.xlsx
+++ b/metadata/specs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucfi\Documents\Clinical Data\ClinicalExercise\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF1980C-6DC5-4967-9B55-9CE213953C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E58A0E5-EDE3-484A-AFA2-1D04F35782E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="1" r:id="rId1"/>
@@ -10032,9 +10032,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I996"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7:G7"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -11259,9 +11259,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:S831"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C279" sqref="C279"/>
+      <selection pane="bottomLeft" activeCell="D245" sqref="D245:F246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -35580,9 +35580,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H790"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A207" sqref="A207"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D230" sqref="D230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
